--- a/Torneo_Gallos.xlsx
+++ b/Torneo_Gallos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t># Jaula</t>
+          <t>numeroJaula</t>
         </is>
       </c>
     </row>
@@ -491,35 +491,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Alacranes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>giro</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>sogamoso</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -539,43 +539,335 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Alacranes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>sogamoso</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>tunja</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>javado</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>tunja</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alacranes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>bogota</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alacranes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>bogota</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nathaly</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nathaly</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Gallo</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Torneo_Gallos.xlsx
+++ b/Torneo_Gallos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t># Jaula</t>
+          <t>numeroJaula</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -576,6 +576,5046 @@
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12321</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2372819</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32131</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3213</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>32131</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>32131</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>32131</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>32131</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>32131</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>31231</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32131</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>321321</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>321321</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>321321</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>321312</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>32131</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>adasd</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>dasdas</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>dsadsadsa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>dsadsa</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>dsada</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>321321</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>321321</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3333</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>32131</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Los Valientes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>P001</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Peñoneros</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>A002</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>P002</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Guerreros del Sur</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>A003</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>P003</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Peñoneros</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>A004</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>P004</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>El Reinado</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>A005</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>P005</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Los Titanes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>A006</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>P006</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Guerreros del Sur</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>A007</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>P007</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>El Reinado</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>A008</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>P008</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nathaly</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>A009</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>P009</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Peñoneros</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>A010</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>P010</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Los Valientes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>A011</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>P011</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Orgullo Llanero</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>A012</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>P012</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Raza Brava</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>A013</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>P013</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Orgullo Llanero</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>A014</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>P014</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Los Titanes</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>A015</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>P015</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Guerreros del Sur</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>A016</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>P016</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Los Valientes</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>A017</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>P017</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Furia del Norte</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A018</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>P018</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nathaly</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>A019</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>P019</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Orgullo Llanero</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>A020</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>P020</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nathaly</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>A021</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>P021</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Guerreros del Sur</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>A022</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>P022</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Los Valientes</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>A023</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>P023</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Raza Brava</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>A024</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>P024</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Peñoneros</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>A025</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>P025</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>El Reinado</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>A026</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>P026</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Casta Fina</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>A027</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>P027</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Guerreros del Sur</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>A028</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>P028</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nathaly</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>A029</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>P029</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Casta Fina</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>A030</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>P030</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Casta Fina</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>A031</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>P031</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Casta Fina</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>A032</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>P032</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Furia del Norte</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>A033</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>P033</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Orgullo Llanero</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>A034</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>P034</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Guerreros del Sur</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>A035</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>P035</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Guerreros del Sur</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>A036</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>P036</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Los Valientes</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>A037</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>P037</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Raza Brava</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>A038</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>P038</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Peñoneros</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>A039</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>P039</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nathaly</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>A040</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>P040</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Casta Fina</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>A041</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>P041</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Orgullo Llanero</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>A042</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>P042</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Peñoneros</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>A043</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>P043</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Orgullo Llanero</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>A044</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>P044</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Los Valientes</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>A045</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>P045</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Los Titanes</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>A046</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>P046</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Furia del Norte</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>A047</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>P047</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Casta Fina</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>A048</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>P048</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Los Titanes</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>A049</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>P049</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Furia del Norte</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>A050</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>P050</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>El Reinado</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>A051</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>P051</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Furia del Norte</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>A052</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>P052</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Casta Fina</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>A053</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>P053</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Los Titanes</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>A054</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>P054</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>El Reinado</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>A055</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>P055</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Raza Brava</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>A056</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>P056</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Raza Brava</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>A057</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>P057</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Raza Brava</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>A058</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>P058</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Los Titanes</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>A059</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>P059</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Los Titanes</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>A060</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>P060</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Guerreros del Sur</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>A061</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>P061</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Furia del Norte</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>A062</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>P062</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Casta Fina</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>A063</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>P063</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Los Valientes</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>A064</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>P064</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Casta Fina</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>A065</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>P065</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Nathaly</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>A066</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>P066</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Peñoneros</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>A067</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>P067</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Casta Fina</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>A068</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>P068</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Raza Brava</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>A069</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>P069</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Nathaly</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>A070</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>P070</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Guerreros del Sur</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>A071</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>P071</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Los Titanes</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>A072</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>P072</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Orgullo Llanero</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>A073</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>P073</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Casta Fina</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>A074</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>P074</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Orgullo Llanero</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>A075</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>P075</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Casta Fina</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>A076</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>P076</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Peñoneros</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>A077</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>P077</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Raza Brava</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>A078</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>P078</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Peñoneros</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>A079</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>P079</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Nathaly</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>A080</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>P080</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Orgullo Llanero</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>A081</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>P081</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Los Valientes</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>A082</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>P082</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Raza Brava</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>A083</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>P083</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Los Valientes</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>A084</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>P084</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Furia del Norte</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>A085</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>P085</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Casta Fina</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>A086</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>P086</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Furia del Norte</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>A087</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>P087</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Nathaly</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>A088</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>P088</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Guerreros del Sur</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>A089</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>P089</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Orgullo Llanero</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>A090</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>P090</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Peñoneros</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>A091</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>P091</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Los Valientes</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>A092</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>P092</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>El Reinado</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>A093</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>P093</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Furia del Norte</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>A094</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>P094</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Los Valientes</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>A095</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>P095</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Los Valientes</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>A096</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>P096</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>giro</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Orgullo Llanero</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>A097</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>P097</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>cenizo</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Casta Fina</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>A098</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>P098</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>canaguai</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Duitama</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Peñoneros</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>A099</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>P099</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>colorado</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Sogamoso</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Furia del Norte</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>A100</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>P100</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>rojo</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>4</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Gallo</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
